--- a/ConfigData/Xlsx/SpellTrap.xlsx
+++ b/ConfigData/Xlsx/SpellTrap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fish\Trunk\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -169,23 +169,23 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>爆炸陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellTrapSummonDelegate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成一定伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.OnMagicDamage(t.Damage,3);return true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>冰冻召唤的怪物5回合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.OnMagicDamage(t.Damage,3);return true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellTrapSummonDelegate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标造成一定伤害</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1136,74 +1136,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1240,7 +1172,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1564,7 +1496,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -1669,7 +1601,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24">
@@ -1677,16 +1609,16 @@
         <v>54000006</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/SpellTrap.xlsx
+++ b/ConfigData/Xlsx/SpellTrap.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
@@ -181,15 +181,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>m.OnMagicDamage(t.Damage,3);return true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>冰冻召唤的怪物5回合</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>m.AddBuff(56000009,lv,5);return true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.OnMagicDamage(null,t.Damage,3);return true;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1457,15 +1457,15 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.75" customWidth="1"/>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
     <col min="3" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="49.125" customWidth="1"/>
+    <col min="5" max="5" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="65.25" customHeight="1">
@@ -1519,7 +1519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24">
+    <row r="4" spans="1:5" ht="36">
       <c r="A4" s="5">
         <v>54000001</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24">
+    <row r="5" spans="1:5" ht="36">
       <c r="A5" s="8">
         <v>54000002</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="24">
       <c r="A6" s="8">
         <v>54000003</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="24">
       <c r="A7" s="8">
         <v>54000004</v>
       </c>
@@ -1598,10 +1598,10 @@
         <v>26</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="24">
@@ -1615,7 +1615,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>30</v>

--- a/ConfigData/Xlsx/SpellTrap.xlsx
+++ b/ConfigData/Xlsx/SpellTrap.xlsx
@@ -1457,7 +1457,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/ConfigData/Xlsx/SpellTrap.xlsx
+++ b/ConfigData/Xlsx/SpellTrap.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -145,51 +145,95 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>召唤时触发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用卡牌时触发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>return false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>return false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpellTrapSummonDelegate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对目标造成一定伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻召唤的怪物5回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.AddBuff(56000009,lv,5);return true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.OnMagicDamage(null,t.Damage,3);return true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰冻陷阱</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.Return((int)t.Help);return true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>把目标移动回手牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>EffectSummon</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>召唤时触发</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用卡牌时触发</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>return false;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>return false;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰晶</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸陷阱</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpellTrapSummonDelegate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>对目标造成一定伤害</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰冻召唤的怪物5回合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.AddBuff(56000009,lv,5);return true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>m.OnMagicDamage(null,t.Damage,3);return true;</t>
+    <t>UnitEffect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>firehit</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceball</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>icesharp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>silent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pinkball</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bluewing</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1148,17 +1192,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:E9" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:E9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F10" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A3:F10"/>
   <sortState ref="A4:Z126">
     <sortCondition ref="A3:A126"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" name="Id" dataDxfId="4"/>
     <tableColumn id="2" name="Name" dataDxfId="3"/>
     <tableColumn id="22" name="EffectUse" dataDxfId="2"/>
     <tableColumn id="4" name="EffectSummon" dataDxfId="1"/>
     <tableColumn id="3" name="Comment" dataDxfId="0"/>
+    <tableColumn id="5" name="UnitEffect"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1451,13 +1496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1468,7 +1513,7 @@
     <col min="5" max="5" width="49.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="65.25" customHeight="1">
+    <row r="1" spans="1:6" ht="65.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -1476,16 +1521,19 @@
         <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1496,13 +1544,16 @@
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1513,13 +1564,16 @@
         <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="36">
+    <row r="4" spans="1:6" ht="36">
       <c r="A4" s="5">
         <v>54000001</v>
       </c>
@@ -1530,13 +1584,16 @@
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="36">
+    <row r="5" spans="1:6" ht="36">
       <c r="A5" s="8">
         <v>54000002</v>
       </c>
@@ -1547,13 +1604,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="24">
+    <row r="6" spans="1:6" ht="24">
       <c r="A6" s="8">
         <v>54000003</v>
       </c>
@@ -1564,13 +1624,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="24">
+    <row r="7" spans="1:6" ht="24">
       <c r="A7" s="8">
         <v>54000004</v>
       </c>
@@ -1581,44 +1644,73 @@
         <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="24">
+    <row r="8" spans="1:6" ht="24">
       <c r="A8" s="8">
         <v>54000005</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24">
+    <row r="9" spans="1:6" ht="24">
       <c r="A9" s="8">
         <v>54000006</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="24">
+      <c r="A10" s="8">
+        <v>54000007</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>30</v>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/SpellTrap.xlsx
+++ b/ConfigData/Xlsx/SpellTrap.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -234,6 +234,22 @@
   </si>
   <si>
     <t>bluewing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellowflash</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(m.Star&lt;=2){m.Rebel();return true;}else return false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使等级低于2的单位反叛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>误导</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1192,8 +1208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F10" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:F10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F11" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A3:F11"/>
   <sortState ref="A4:Z126">
     <sortCondition ref="A3:A126"/>
   </sortState>
@@ -1496,13 +1512,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1713,6 +1729,26 @@
         <v>40</v>
       </c>
     </row>
+    <row r="11" spans="1:6" ht="24">
+      <c r="A11" s="8">
+        <v>54000008</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/SpellTrap.xlsx
+++ b/ConfigData/Xlsx/SpellTrap.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="标准" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -250,14 +250,26 @@
   </si>
   <si>
     <t>误导</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法消耗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManaCost</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1001,7 +1013,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -1031,6 +1043,41 @@
           <color theme="4"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <name val="Courier New"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1208,16 +1255,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:F11" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A3:F11"/>
-  <sortState ref="A4:Z126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:G11" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A3:G11"/>
+  <sortState ref="A4:AA126">
     <sortCondition ref="A3:A126"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Id" dataDxfId="4"/>
-    <tableColumn id="2" name="Name" dataDxfId="3"/>
-    <tableColumn id="22" name="EffectUse" dataDxfId="2"/>
-    <tableColumn id="4" name="EffectSummon" dataDxfId="1"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Id" dataDxfId="5"/>
+    <tableColumn id="2" name="Name" dataDxfId="4"/>
+    <tableColumn id="22" name="EffectUse" dataDxfId="3"/>
+    <tableColumn id="4" name="EffectSummon" dataDxfId="2"/>
+    <tableColumn id="6" name="ManaCost" dataDxfId="1"/>
     <tableColumn id="3" name="Comment" dataDxfId="0"/>
     <tableColumn id="5" name="UnitEffect"/>
   </tableColumns>
@@ -1226,7 +1274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1301,6 +1349,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1336,6 +1401,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1512,24 +1594,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
     <col min="3" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="49.109375" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="65.25" customHeight="1">
+    <row r="1" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -1543,13 +1626,16 @@
         <v>22</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1563,13 +1649,16 @@
         <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1582,14 +1671,17 @@
       <c r="D3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="36">
+    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>54000001</v>
       </c>
@@ -1602,14 +1694,17 @@
       <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="36">
+    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>54000002</v>
       </c>
@@ -1622,14 +1717,17 @@
       <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>54000003</v>
       </c>
@@ -1642,14 +1740,17 @@
       <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>54000004</v>
       </c>
@@ -1662,14 +1763,17 @@
       <c r="D7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24">
+    <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>54000005</v>
       </c>
@@ -1682,14 +1786,17 @@
       <c r="D8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24">
+    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>54000006</v>
       </c>
@@ -1702,14 +1809,17 @@
       <c r="D9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="24">
+    <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>54000007</v>
       </c>
@@ -1722,14 +1832,17 @@
       <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="24">
+    <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>54000008</v>
       </c>
@@ -1742,10 +1855,13 @@
       <c r="D11" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>45</v>
       </c>
     </row>

--- a/ConfigData/Xlsx/SpellTrap.xlsx
+++ b/ConfigData/Xlsx/SpellTrap.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -181,10 +181,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>m.AddBuff(56000009,lv,5);return true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>m.OnMagicDamage(null,t.Damage,3);return true;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -193,10 +189,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>m.Return((int)t.Help);return true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>把目标移动回手牌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -241,10 +233,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>if(m.Star&lt;=2){m.Rebel();return true;}else return false;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>使等级低于2的单位反叛</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -262,6 +250,18 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.Action.AddBuff(56000009,lv,5);return true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(m.Star&lt;=2){m.Action.Rebel();return true;}else return false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.Action.Return((int)t.Help);return true;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1600,7 +1600,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1626,13 +1626,13 @@
         <v>22</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1649,7 +1649,7 @@
         <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
@@ -1669,16 +1669,16 @@
         <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -1701,7 +1701,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -1724,7 +1724,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1747,7 +1747,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1770,7 +1770,7 @@
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -1784,7 +1784,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -1807,7 +1807,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -1816,7 +1816,7 @@
         <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -1824,22 +1824,22 @@
         <v>54000007</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -1847,22 +1847,22 @@
         <v>54000008</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/SpellTrap.xlsx
+++ b/ConfigData/Xlsx/SpellTrap.xlsx
@@ -81,26 +81,14 @@
     <t>名字</t>
   </si>
   <si>
-    <t>if(type==2){r.DeleteSelectCard();return true;}return false;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>r.DeleteSelectCard();return true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>法术反制</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>if(type==3){r.DeleteSelectCard();return true;}return false;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>使对方使用的魔法卡破坏</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -129,10 +117,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>r.RecostSelectCard();return true;</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>使对方使用的卡牌消耗额外增加1倍</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -262,6 +246,22 @@
   </si>
   <si>
     <t>m.Action.Return((int)t.Help);return true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(type==2){r.Action.DeleteSelectCard();return true;}return false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(type==3){r.Action.DeleteSelectCard();return true;}return false;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.Action.DeleteSelectCard();return true;</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>r.Action.RecostSelectCard();return true;</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1600,7 +1600,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1620,19 +1620,19 @@
         <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -1643,13 +1643,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
@@ -1666,19 +1666,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -1686,22 +1686,22 @@
         <v>54000001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -1709,68 +1709,68 @@
         <v>54000002</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>54000003</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="8">
         <v>3</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>54000004</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -1778,22 +1778,22 @@
         <v>54000005</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -1801,22 +1801,22 @@
         <v>54000006</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -1824,22 +1824,22 @@
         <v>54000007</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E10" s="8">
         <v>1</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.15">
@@ -1847,22 +1847,22 @@
         <v>54000008</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
